--- a/biology/Botanique/Lomelosia_graminifolia/Lomelosia_graminifolia.xlsx
+++ b/biology/Botanique/Lomelosia_graminifolia/Lomelosia_graminifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lomelosia graminifolia, la Lomélosie à feuilles de graminée ou Scabieuse à feuilles de graminée, est une espèce de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lomelosia graminifolia, la Lomélosie à feuilles de graminée ou Scabieuse à feuilles de graminée, est une espèce de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), de la famille des Caprifoliaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante velue, haute de 15 à 50 cm, aux feuilles glauques, allongées, ressemblant aux feuilles des poacées (graminées). Les tiges non ramifiées portent un capitule unique pouvant atteindre 5 cm de diamètre. 
 </t>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire d'Europe : Suisse, Albanie, Grèce, Italie, France, Espagne et Balkans. Croatie 
-En France, cette plante vit sur les pentes rocailleuses des Alpes. Elle est rare et protégée dans les Pyrénées[2].
+En France, cette plante vit sur les pentes rocailleuses des Alpes. Elle est rare et protégée dans les Pyrénées.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonyme ancien : Scabiosa graminifolia L., 1755 basionyme</t>
         </is>
